--- a/Projects/CCRU_SAND/Data/KPIs_2020/KPIs for DB - Contract Execution 2020.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/KPIs for DB - Contract Execution 2020.xlsx
@@ -702,17 +702,17 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C131" activeCellId="0" sqref="C131"/>
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="39.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="17.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="41.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="18.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,10 +1111,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.447762</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -1128,10 +1128,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.447762</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>53</v>
@@ -1621,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0.378788</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>89</v>
@@ -1638,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0.378788</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>90</v>
